--- a/Word/log/log_201608040212_zouguo.xlsx
+++ b/Word/log/log_201608040212_zouguo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E673CD5F-BCC8-4D5F-BC09-D157923E1A06}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FCBBC6-2C27-46DD-B36E-740F47DEBBBF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="59">
   <si>
     <t>周次</t>
   </si>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第十九天1:00-16:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>了解ExtJSMVC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,6 +236,18 @@
   </si>
   <si>
     <t>了解JS/jquery框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建SSM项目框架，进行测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计数据库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块划分，机房调整算法设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,13 +291,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1012,7 +1023,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -1020,13 +1031,13 @@
         <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
@@ -1034,13 +1045,13 @@
         <v>48</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -1048,13 +1059,13 @@
         <v>49</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -1062,13 +1073,13 @@
         <v>50</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -1076,13 +1087,13 @@
         <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
@@ -1090,18 +1101,58 @@
         <v>52</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>43312</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>53</v>
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>43313</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>43314</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Word/log/log_201608040212_zouguo.xlsx
+++ b/Word/log/log_201608040212_zouguo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FCBBC6-2C27-46DD-B36E-740F47DEBBBF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9C6C64-FDFF-4717-8337-6FDA44EBFD49}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
   <si>
     <t>周次</t>
   </si>
@@ -248,6 +248,14 @@
   </si>
   <si>
     <t>模块划分，机房调整算法设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加机房表的POJO，以及配置文件路径的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计机房安排算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1153,6 +1161,34 @@
       </c>
       <c r="D37" s="1" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
+        <v>43315</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
+        <v>43316</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Word/log/log_201608040212_zouguo.xlsx
+++ b/Word/log/log_201608040212_zouguo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9C6C64-FDFF-4717-8337-6FDA44EBFD49}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDD2605-ED84-4059-AE64-19D8506917E7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
   <si>
     <t>周次</t>
   </si>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t>设计机房安排算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写controller层测试样例，开始学习MockMvc的基本用法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计机房申请前后台交互框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑假</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +285,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -299,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,6 +329,12 @@
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -648,16 +674,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="71.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="39.625" style="1" customWidth="1"/>
   </cols>
@@ -1118,8 +1144,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B34" s="1"/>
+    <row r="34" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
@@ -1189,6 +1220,28 @@
       </c>
       <c r="D39" s="1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="3">
+        <v>43326</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="3">
+        <v>43328</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Word/log/log_201608040212_zouguo.xlsx
+++ b/Word/log/log_201608040212_zouguo.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDD2605-ED84-4059-AE64-19D8506917E7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71337FBE-A89A-4B8E-8BF0-EFB3735E3636}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="2505" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
   <si>
     <t>周次</t>
   </si>
@@ -268,6 +268,18 @@
   </si>
   <si>
     <t>暑假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计开发样例模板代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写开发样例模板代码 以修改密码功能为例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计机房申请前后交互接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1232,6 +1244,9 @@
       <c r="C40" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
@@ -1242,6 +1257,37 @@
       </c>
       <c r="C41" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="3">
+        <v>43332</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="3">
+        <v>43333</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
